--- a/StorySheetTest.xlsx
+++ b/StorySheetTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Documents\UnityProject\My DevGame\ScenarioGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B073E0-0EAC-4097-AE5D-B5BA048801A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D620E7-EBE1-42CB-AAAF-9005AA0FC568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC8CB9E1-192C-4489-96E9-E7ED89E0A81B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>発言者</t>
     <rPh sb="0" eb="3">
@@ -98,6 +98,47 @@
   </si>
   <si>
     <t>Test３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの
+場所番号</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの
+場所番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのテキストが
+表示されるのにかかる時間</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +171,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +215,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -236,13 +319,149 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -253,42 +472,463 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -630,80 +1270,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A9611D-3A23-4FDE-A201-5CA78D9ACCBC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="53.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -741,17 +1412,33 @@
     <row r="51" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="52" ht="48" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A1048576">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
+      <formula>LEN(TRIM(A3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{66EDA527-E7DE-4393-93F6-203311D240E6}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{66EDA527-E7DE-4393-93F6-203311D240E6}">
             <xm:f>でーたおきば!$B$5</xm:f>
             <x14:dxf>
               <fill>
@@ -761,7 +1448,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6E5B17F0-775A-45C1-A5AA-16B15544647B}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{6E5B17F0-775A-45C1-A5AA-16B15544647B}">
             <xm:f>でーたおきば!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -771,7 +1458,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{45D569E4-6852-4E54-B792-D07BCE638069}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{45D569E4-6852-4E54-B792-D07BCE638069}">
             <xm:f>でーたおきば!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -781,15 +1468,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52BF811D-D942-43C4-84EB-590126DCECC1}">
           <x14:formula1>
             <xm:f>でーたおきば!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{902C6C5B-04B9-48E0-B524-7E2CBE9904FC}">
+          <x14:formula1>
+            <xm:f>でーたおきば!$A$3:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -802,34 +1495,104 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF4F3F4-C115-4AB9-8959-9870E0C9FCDC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B5"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="30"/>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="26">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D7" s="14"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="14"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
